--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775CCE97-9795-48F7-BD8F-44D833490CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB27C29-B0F3-42CF-AFAC-E11C47437F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15048" yWindow="6312" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="2400" yWindow="3300" windowWidth="21600" windowHeight="11430" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="first_reward" sheetId="1" r:id="rId1"/>
@@ -53,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>actor_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>액터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spell_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +70,13 @@
   </si>
   <si>
     <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 ID</t>
+  </si>
+  <si>
+    <t>first_reward_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,57 +514,57 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -579,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000001</v>
       </c>
@@ -593,79 +592,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>

--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB27C29-B0F3-42CF-AFAC-E11C47437F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB3DB34-8302-4218-B942-753A9220C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3300" windowWidth="21600" windowHeight="11430" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="15144" yWindow="11712" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="first_reward" sheetId="1" r:id="rId1"/>
@@ -53,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spell_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기 스펠 셋팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +69,14 @@
   </si>
   <si>
     <t>first_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급할 근원 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,61 +510,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="3"/>
+    <col min="5" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -572,13 +572,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000001</v>
       </c>
@@ -586,89 +586,83 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>10002</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB3DB34-8302-4218-B942-753A9220C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAE4E8-3A7E-4C03-B884-6B6045687C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15144" yWindow="11712" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="15150" yWindow="11715" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="first_reward" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>int</t>
   </si>
@@ -214,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,17 +503,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="3"/>
+    <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -538,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -552,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -564,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
@@ -578,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000001</v>
       </c>
@@ -586,79 +575,95 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>1003</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>

--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBAE4E8-3A7E-4C03-B884-6B6045687C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524C04C1-6556-416B-9DA3-A01080BF475E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15150" yWindow="11715" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -672,5 +672,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524C04C1-6556-416B-9DA3-A01080BF475E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAAF05-1578-40C9-AC30-9CFAC081BD84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15150" yWindow="11715" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>

--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAAF05-1578-40C9-AC30-9CFAC081BD84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2AF26-537F-40E4-99E2-A6894B0EEBDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15150" yWindow="11715" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>int</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -589,25 +589,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1000001</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -662,12 +654,6 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2AF26-537F-40E4-99E2-A6894B0EEBDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A620AC-CEA1-439E-96C2-D4BBF6D05F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15150" yWindow="11715" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>int</t>
   </si>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -589,17 +589,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -654,6 +662,12 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/first_reward.xlsx
+++ b/GameData/Excel/first_reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A620AC-CEA1-439E-96C2-D4BBF6D05F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6BCAB-4B3E-461C-9B0C-E92FEA8B69E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="11715" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="first_reward" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -61,11 +72,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>source_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지급할 근원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:reward_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_source</t>
+  </si>
+  <si>
+    <t>spell_combine</t>
+  </si>
+  <si>
+    <t>content_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,21 +528,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="3"/>
+    <col min="3" max="3" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -521,13 +551,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -535,139 +568,217 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>1001</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000001</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
         <v>1001</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1000001</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>1003</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1000001</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>1004</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
